--- a/Project/Project_Checkpoint_3/truth_table3.xlsx
+++ b/Project/Project_Checkpoint_3/truth_table3.xlsx
@@ -165,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="000000"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -264,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,12 +332,6 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -351,10 +339,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,19 +652,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="28" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="28" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1160,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="20">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
@@ -1197,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="20">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -1470,16 +1458,16 @@
       <c r="B21" s="24">
         <v>0</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="26">
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9">
         <v>0</v>
       </c>
       <c r="G21" s="24">
@@ -1494,13 +1482,13 @@
       <c r="J21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="26">
-        <v>1</v>
-      </c>
-      <c r="L21" s="26">
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
         <v>11</v>
       </c>
     </row>
@@ -1511,16 +1499,16 @@
       <c r="B22" s="24">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9">
         <v>0</v>
       </c>
       <c r="G22" s="24">
@@ -1535,13 +1523,13 @@
       <c r="J22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="26">
-        <v>1</v>
-      </c>
-      <c r="L22" s="26">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26">
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>8</v>
       </c>
     </row>
@@ -1552,16 +1540,16 @@
       <c r="B23" s="24">
         <v>0</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9">
         <v>0</v>
       </c>
       <c r="G23" s="24">
@@ -1576,13 +1564,13 @@
       <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="L23" s="26">
-        <v>0</v>
-      </c>
-      <c r="M23" s="26">
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
         <v>9</v>
       </c>
     </row>
@@ -1593,16 +1581,16 @@
       <c r="B24" s="24">
         <v>0</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="26">
+      <c r="C24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="24">
@@ -1617,105 +1605,105 @@
       <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="26">
-        <v>1</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="6"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="24"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="24"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="6"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="24"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="6"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="24"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="6"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="24"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="6"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="24"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
